--- a/report/cargos_a_criar.xlsx
+++ b/report/cargos_a_criar.xlsx
@@ -1025,7 +1025,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="n">
@@ -1153,14 +1153,14 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1529,7 +1529,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
@@ -1538,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1608,7 +1608,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="n">
@@ -1689,14 +1689,14 @@
         <v>66</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="n">
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2003,7 +2003,7 @@
         <v>86</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
@@ -2012,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -2037,7 +2037,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="n">
